--- a/Historical averages through 2021.xlsx
+++ b/Historical averages through 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Programming Directory/Ebel Lab/wnv-ss-wkly_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ABA016-EB02-9942-8331-4534F6B7435D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47892F8-A6D1-5745-88B8-077B25CC6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37120" yWindow="80" windowWidth="28800" windowHeight="16220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abundance" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
@@ -6383,7 +6383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
@@ -11669,8 +11669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AA89"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Historical averages through 2021.xlsx
+++ b/Historical averages through 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Programming Directory/Ebel Lab/wnv-ss-wkly_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47892F8-A6D1-5745-88B8-077B25CC6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E85A4F7-E9BF-0A45-ACBC-88B3C36DED35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37120" yWindow="80" windowWidth="28800" windowHeight="16220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37400" yWindow="-1800" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abundance" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Vector abundance</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>14-21 r calc</t>
+  </si>
+  <si>
+    <t>14-21_R_calc2</t>
+  </si>
+  <si>
+    <t>14-21 r calc 2</t>
+  </si>
+  <si>
+    <t>diff 2</t>
   </si>
 </sst>
 </file>
@@ -305,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -404,6 +413,9 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,6 +437,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA106"/>
+  <dimension ref="B2:AB106"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,13 +819,14 @@
     <col min="13" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="3" customWidth="1"/>
     <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="53"/>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="56"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -821,7 +836,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -831,7 +846,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -893,18 +908,19 @@
       <c r="W4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="51"/>
+      <c r="Y4" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="6">
-        <f>AVERAGE(X5:X87)</f>
+      <c r="AB4" s="6">
+        <f>AVERAGE(Y5:Y87)</f>
         <v>2.2942439128364516</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="1">
         <v>23</v>
       </c>
@@ -952,12 +968,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W5" s="51"/>
-      <c r="X5" s="6">
+      <c r="X5" s="51"/>
+      <c r="Y5" s="6">
         <f>V5-W5</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>24</v>
       </c>
@@ -1019,12 +1036,13 @@
       <c r="W6" s="51">
         <v>4.55</v>
       </c>
-      <c r="X6" s="6">
-        <f t="shared" ref="X6:X69" si="2">V6-W6</f>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="6">
+        <f t="shared" ref="Y6:Y69" si="2">V6-W6</f>
         <v>-0.23917748917748938</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <v>25</v>
       </c>
@@ -1088,12 +1106,13 @@
       <c r="W7" s="51">
         <v>14.03</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="51"/>
+      <c r="Y7" s="6">
         <f t="shared" si="2"/>
         <v>-0.22687499999999972</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>26</v>
       </c>
@@ -1157,12 +1176,13 @@
       <c r="W8" s="51">
         <v>25.6</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="51"/>
+      <c r="Y8" s="6">
         <f t="shared" si="2"/>
         <v>-0.66527777777778141</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>27</v>
       </c>
@@ -1226,12 +1246,13 @@
       <c r="W9" s="51">
         <v>48.76</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="51"/>
+      <c r="Y9" s="6">
         <f t="shared" si="2"/>
         <v>2.0233333333333334</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>28</v>
       </c>
@@ -1295,12 +1316,13 @@
       <c r="W10" s="51">
         <v>73.099999999999994</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="51"/>
+      <c r="Y10" s="6">
         <f t="shared" si="2"/>
         <v>7.2166666666666686</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>29</v>
       </c>
@@ -1364,12 +1386,13 @@
       <c r="W11" s="51">
         <v>76.91</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="51"/>
+      <c r="Y11" s="6">
         <f t="shared" si="2"/>
         <v>-2.5349999999999966</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>30</v>
       </c>
@@ -1433,12 +1456,13 @@
       <c r="W12" s="51">
         <v>107.08</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="51"/>
+      <c r="Y12" s="6">
         <f t="shared" si="2"/>
         <v>7.000000000000739E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>31</v>
       </c>
@@ -1502,12 +1526,13 @@
       <c r="W13" s="51">
         <v>95.21</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="51"/>
+      <c r="Y13" s="6">
         <f t="shared" si="2"/>
         <v>21.090000000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>32</v>
       </c>
@@ -1571,12 +1596,13 @@
       <c r="W14" s="51">
         <v>78.569999999999993</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="51"/>
+      <c r="Y14" s="6">
         <f t="shared" si="2"/>
         <v>10.91749999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>33</v>
       </c>
@@ -1640,12 +1666,13 @@
       <c r="W15" s="51">
         <v>66.14</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="51"/>
+      <c r="Y15" s="6">
         <f t="shared" si="2"/>
         <v>0.2531818181818295</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>34</v>
       </c>
@@ -1709,12 +1736,13 @@
       <c r="W16" s="51">
         <v>37.04</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="51"/>
+      <c r="Y16" s="6">
         <f t="shared" si="2"/>
         <v>8.6692171717171718</v>
       </c>
     </row>
-    <row r="17" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>35</v>
       </c>
@@ -1778,12 +1806,13 @@
       <c r="W17" s="51">
         <v>36.57</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="51"/>
+      <c r="Y17" s="6">
         <f t="shared" si="2"/>
         <v>-0.64500000000000313</v>
       </c>
     </row>
-    <row r="18" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>36</v>
       </c>
@@ -1829,12 +1858,13 @@
       <c r="W18" s="51">
         <v>34</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="51"/>
+      <c r="Y18" s="6">
         <f t="shared" si="2"/>
         <v>-1.9285714285714306</v>
       </c>
     </row>
-    <row r="19" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>37</v>
       </c>
@@ -1874,12 +1904,13 @@
       <c r="W19" s="51">
         <v>12.53</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="51"/>
+      <c r="Y19" s="6">
         <f t="shared" si="2"/>
         <v>0.23666666666666814</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1890,9 +1921,9 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="V20" s="6"/>
-      <c r="X20" s="6"/>
-    </row>
-    <row r="21" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="Y20" s="6"/>
+    </row>
+    <row r="21" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1952,9 +1983,10 @@
       <c r="W21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="X21" s="6"/>
-    </row>
-    <row r="22" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="X21" s="51"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>23</v>
       </c>
@@ -2002,12 +2034,13 @@
         <v>3.2222222222222223</v>
       </c>
       <c r="W22" s="51"/>
-      <c r="X22" s="6">
+      <c r="X22" s="51"/>
+      <c r="Y22" s="6">
         <f t="shared" si="2"/>
         <v>3.2222222222222223</v>
       </c>
     </row>
-    <row r="23" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>24</v>
       </c>
@@ -2069,12 +2102,13 @@
       <c r="W23" s="51">
         <v>3.73</v>
       </c>
-      <c r="X23" s="6">
+      <c r="X23" s="51"/>
+      <c r="Y23" s="6">
         <f t="shared" si="2"/>
         <v>-0.91746031746031731</v>
       </c>
     </row>
-    <row r="24" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>25</v>
       </c>
@@ -2138,12 +2172,13 @@
       <c r="W24" s="51">
         <v>5.52</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="51"/>
+      <c r="Y24" s="6">
         <f t="shared" si="2"/>
         <v>0.43359126984127005</v>
       </c>
     </row>
-    <row r="25" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>26</v>
       </c>
@@ -2207,12 +2242,13 @@
       <c r="W25" s="51">
         <v>15.62</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="51"/>
+      <c r="Y25" s="6">
         <f t="shared" si="2"/>
         <v>-1.9816666666666674</v>
       </c>
     </row>
-    <row r="26" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>27</v>
       </c>
@@ -2276,12 +2312,13 @@
       <c r="W26" s="51">
         <v>23.95</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="51"/>
+      <c r="Y26" s="6">
         <f t="shared" si="2"/>
         <v>0.31736111111111498</v>
       </c>
     </row>
-    <row r="27" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>28</v>
       </c>
@@ -2345,12 +2382,13 @@
       <c r="W27" s="51">
         <v>31.38</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X27" s="51"/>
+      <c r="Y27" s="6">
         <f t="shared" si="2"/>
         <v>1.0305753968253946</v>
       </c>
     </row>
-    <row r="28" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>29</v>
       </c>
@@ -2414,12 +2452,13 @@
       <c r="W28" s="51">
         <v>37.67</v>
       </c>
-      <c r="X28" s="6">
+      <c r="X28" s="51"/>
+      <c r="Y28" s="6">
         <f t="shared" si="2"/>
         <v>-0.58325396825397036</v>
       </c>
     </row>
-    <row r="29" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>30</v>
       </c>
@@ -2483,12 +2522,13 @@
       <c r="W29" s="51">
         <v>55.07</v>
       </c>
-      <c r="X29" s="6">
+      <c r="X29" s="51"/>
+      <c r="Y29" s="6">
         <f t="shared" si="2"/>
         <v>0.33680555555555713</v>
       </c>
     </row>
-    <row r="30" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>31</v>
       </c>
@@ -2552,12 +2592,13 @@
       <c r="W30" s="51">
         <v>40.380000000000003</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X30" s="51"/>
+      <c r="Y30" s="6">
         <f t="shared" si="2"/>
         <v>26.786250000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>32</v>
       </c>
@@ -2621,12 +2662,13 @@
       <c r="W31" s="51">
         <v>38.159999999999997</v>
       </c>
-      <c r="X31" s="6">
+      <c r="X31" s="51"/>
+      <c r="Y31" s="6">
         <f t="shared" si="2"/>
         <v>-0.64958333333332519</v>
       </c>
     </row>
-    <row r="32" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>33</v>
       </c>
@@ -2688,12 +2730,13 @@
       <c r="W32" s="51">
         <v>27.67</v>
       </c>
-      <c r="X32" s="6">
+      <c r="X32" s="51"/>
+      <c r="Y32" s="6">
         <f t="shared" si="2"/>
         <v>1.3155555555555551</v>
       </c>
     </row>
-    <row r="33" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
         <v>34</v>
       </c>
@@ -2755,12 +2798,13 @@
       <c r="W33" s="51">
         <v>18.22</v>
       </c>
-      <c r="X33" s="6">
+      <c r="X33" s="51"/>
+      <c r="Y33" s="6">
         <f t="shared" si="2"/>
         <v>1.3631944444444493</v>
       </c>
     </row>
-    <row r="34" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
         <v>35</v>
       </c>
@@ -2822,12 +2866,13 @@
       <c r="W34" s="51">
         <v>12.25</v>
       </c>
-      <c r="X34" s="6">
+      <c r="X34" s="51"/>
+      <c r="Y34" s="6">
         <f t="shared" si="2"/>
         <v>0.15781746031745847</v>
       </c>
     </row>
-    <row r="35" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
         <v>36</v>
       </c>
@@ -2873,12 +2918,13 @@
       <c r="W35" s="51">
         <v>13.28</v>
       </c>
-      <c r="X35" s="6">
+      <c r="X35" s="51"/>
+      <c r="Y35" s="6">
         <f t="shared" si="2"/>
         <v>-1.4201814058956916</v>
       </c>
     </row>
-    <row r="36" spans="3:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
         <v>37</v>
       </c>
@@ -2918,12 +2964,13 @@
       <c r="W36" s="51">
         <v>9.36</v>
       </c>
-      <c r="X36" s="6">
+      <c r="X36" s="51"/>
+      <c r="Y36" s="6">
         <f t="shared" si="2"/>
         <v>-0.35888888888888815</v>
       </c>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -2934,9 +2981,9 @@
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="V37" s="6"/>
-      <c r="X37" s="6"/>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y37" s="6"/>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
@@ -2996,9 +3043,9 @@
       <c r="W38" t="s">
         <v>13</v>
       </c>
-      <c r="X38" s="6"/>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="6"/>
+    </row>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
         <v>23</v>
       </c>
@@ -3045,12 +3092,12 @@
         <f t="shared" si="3"/>
         <v>2.2666666666666666</v>
       </c>
-      <c r="X39" s="6">
+      <c r="Y39" s="6">
         <f t="shared" si="2"/>
         <v>2.2666666666666666</v>
       </c>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
         <v>24</v>
       </c>
@@ -3112,12 +3159,12 @@
       <c r="W40">
         <v>4.83</v>
       </c>
-      <c r="X40" s="6">
+      <c r="Y40" s="6">
         <f t="shared" si="2"/>
         <v>0.33380952380952422</v>
       </c>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
         <v>25</v>
       </c>
@@ -3181,12 +3228,12 @@
       <c r="W41">
         <v>22.3</v>
       </c>
-      <c r="X41" s="6">
+      <c r="Y41" s="6">
         <f t="shared" si="2"/>
         <v>-1.1450595238095254</v>
       </c>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
         <v>26</v>
       </c>
@@ -3250,12 +3297,12 @@
       <c r="W42">
         <v>33.020000000000003</v>
       </c>
-      <c r="X42" s="6">
+      <c r="Y42" s="6">
         <f t="shared" si="2"/>
         <v>-1.2960119047619116</v>
       </c>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
         <v>27</v>
       </c>
@@ -3319,12 +3366,12 @@
       <c r="W43">
         <v>41.5</v>
       </c>
-      <c r="X43" s="6">
+      <c r="Y43" s="6">
         <f t="shared" si="2"/>
         <v>4.3848626373626374</v>
       </c>
     </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
         <v>28</v>
       </c>
@@ -3388,12 +3435,12 @@
       <c r="W44">
         <v>111.23</v>
       </c>
-      <c r="X44" s="6">
+      <c r="Y44" s="6">
         <f t="shared" si="2"/>
         <v>-4.6129166666666634</v>
       </c>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
         <v>29</v>
       </c>
@@ -3457,12 +3504,12 @@
       <c r="W45">
         <v>74.95</v>
       </c>
-      <c r="X45" s="6">
+      <c r="Y45" s="6">
         <f t="shared" si="2"/>
         <v>-4.8254166666666691</v>
       </c>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
         <v>30</v>
       </c>
@@ -3526,12 +3573,12 @@
       <c r="W46">
         <v>103.74</v>
       </c>
-      <c r="X46" s="6">
+      <c r="Y46" s="6">
         <f t="shared" si="2"/>
         <v>1.250000000013074E-3</v>
       </c>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
         <v>31</v>
       </c>
@@ -3595,12 +3642,12 @@
       <c r="W47">
         <v>69.510000000000005</v>
       </c>
-      <c r="X47" s="6">
+      <c r="Y47" s="6">
         <f t="shared" si="2"/>
         <v>15.218846153846144</v>
       </c>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
         <v>32</v>
       </c>
@@ -3664,12 +3711,12 @@
       <c r="W48">
         <v>45.7</v>
       </c>
-      <c r="X48" s="6">
+      <c r="Y48" s="6">
         <f t="shared" si="2"/>
         <v>19.397499999999994</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
         <v>33</v>
       </c>
@@ -3733,12 +3780,12 @@
       <c r="W49">
         <v>39</v>
       </c>
-      <c r="X49" s="6">
+      <c r="Y49" s="6">
         <f t="shared" si="2"/>
         <v>6.1670833333333306</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
         <v>34</v>
       </c>
@@ -3802,12 +3849,12 @@
       <c r="W50">
         <v>24.8</v>
       </c>
-      <c r="X50" s="6">
+      <c r="Y50" s="6">
         <f t="shared" si="2"/>
         <v>3.8583333333333343</v>
       </c>
     </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
         <v>35</v>
       </c>
@@ -3871,12 +3918,12 @@
       <c r="W51">
         <v>20.149999999999999</v>
       </c>
-      <c r="X51" s="6">
+      <c r="Y51" s="6">
         <f t="shared" si="2"/>
         <v>2.2516071428571465</v>
       </c>
     </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
         <v>36</v>
       </c>
@@ -3922,12 +3969,12 @@
       <c r="W52">
         <v>12.16</v>
       </c>
-      <c r="X52" s="6">
+      <c r="Y52" s="6">
         <f t="shared" si="2"/>
         <v>7.761904761904681E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
         <v>37</v>
       </c>
@@ -3967,12 +4014,12 @@
       <c r="W53">
         <v>6.62</v>
       </c>
-      <c r="X53" s="6">
+      <c r="Y53" s="6">
         <f t="shared" si="2"/>
         <v>-2.5000000000003908E-3</v>
       </c>
     </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -3983,9 +4030,9 @@
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="V54" s="6"/>
-      <c r="X54" s="6"/>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="6"/>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4045,9 +4092,9 @@
       <c r="W55" t="s">
         <v>14</v>
       </c>
-      <c r="X55" s="6"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="6"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1">
         <v>23</v>
       </c>
@@ -4090,12 +4137,12 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X56" s="6">
+      <c r="Y56" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
         <v>24</v>
       </c>
@@ -4157,12 +4204,12 @@
       <c r="W57">
         <v>2.02</v>
       </c>
-      <c r="X57" s="6">
+      <c r="Y57" s="6">
         <f t="shared" si="2"/>
         <v>0.86031746031746037</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>25</v>
       </c>
@@ -4226,12 +4273,12 @@
       <c r="W58">
         <v>5.22</v>
       </c>
-      <c r="X58" s="6">
+      <c r="Y58" s="6">
         <f t="shared" si="2"/>
         <v>0.8050000000000006</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1">
         <v>26</v>
       </c>
@@ -4295,12 +4342,12 @@
       <c r="W59">
         <v>9.7899999999999991</v>
       </c>
-      <c r="X59" s="6">
+      <c r="Y59" s="6">
         <f t="shared" si="2"/>
         <v>0.99777777777777743</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1">
         <v>27</v>
       </c>
@@ -4364,12 +4411,12 @@
       <c r="W60">
         <v>11.87</v>
       </c>
-      <c r="X60" s="6">
+      <c r="Y60" s="6">
         <f t="shared" si="2"/>
         <v>1.3853472222222241</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1">
         <v>28</v>
       </c>
@@ -4433,12 +4480,12 @@
       <c r="W61">
         <v>17.52</v>
       </c>
-      <c r="X61" s="6">
+      <c r="Y61" s="6">
         <f t="shared" si="2"/>
         <v>0.28687499999999844</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1">
         <v>29</v>
       </c>
@@ -4502,12 +4549,12 @@
       <c r="W62">
         <v>19.13</v>
       </c>
-      <c r="X62" s="6">
+      <c r="Y62" s="6">
         <f t="shared" si="2"/>
         <v>2.854166666666913E-2</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1">
         <v>30</v>
       </c>
@@ -4571,12 +4618,12 @@
       <c r="W63">
         <v>31.69</v>
       </c>
-      <c r="X63" s="6">
+      <c r="Y63" s="6">
         <f t="shared" si="2"/>
         <v>0.50416666666666643</v>
       </c>
     </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1">
         <v>31</v>
       </c>
@@ -4638,12 +4685,12 @@
       <c r="W64">
         <v>25.25</v>
       </c>
-      <c r="X64" s="6">
+      <c r="Y64" s="6">
         <f t="shared" si="2"/>
         <v>1.3002380952380932</v>
       </c>
     </row>
-    <row r="65" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1">
         <v>32</v>
       </c>
@@ -4707,12 +4754,12 @@
       <c r="W65">
         <v>16.48</v>
       </c>
-      <c r="X65" s="6">
+      <c r="Y65" s="6">
         <f t="shared" si="2"/>
         <v>4.0382738095238082</v>
       </c>
     </row>
-    <row r="66" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1">
         <v>33</v>
       </c>
@@ -4774,12 +4821,12 @@
       <c r="W66">
         <v>16.05</v>
       </c>
-      <c r="X66" s="6">
+      <c r="Y66" s="6">
         <f t="shared" si="2"/>
         <v>1.2957638888888887</v>
       </c>
     </row>
-    <row r="67" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1">
         <v>34</v>
       </c>
@@ -4841,12 +4888,12 @@
       <c r="W67">
         <v>9.75</v>
       </c>
-      <c r="X67" s="6">
+      <c r="Y67" s="6">
         <f t="shared" si="2"/>
         <v>-0.40756944444444265</v>
       </c>
     </row>
-    <row r="68" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1">
         <v>35</v>
       </c>
@@ -4908,12 +4955,12 @@
       <c r="W68">
         <v>7.03</v>
       </c>
-      <c r="X68" s="6">
+      <c r="Y68" s="6">
         <f t="shared" si="2"/>
         <v>0.13126984126984098</v>
       </c>
     </row>
-    <row r="69" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1">
         <v>36</v>
       </c>
@@ -4959,12 +5006,12 @@
       <c r="W69">
         <v>5.22</v>
       </c>
-      <c r="X69" s="6">
+      <c r="Y69" s="6">
         <f t="shared" si="2"/>
         <v>-4.9365079365079723E-2</v>
       </c>
     </row>
-    <row r="70" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1">
         <v>37</v>
       </c>
@@ -5004,12 +5051,12 @@
       <c r="W70">
         <v>1.36</v>
       </c>
-      <c r="X70" s="6">
-        <f t="shared" ref="X70:X87" si="5">V70-W70</f>
+      <c r="Y70" s="6">
+        <f t="shared" ref="Y70:Y87" si="5">V70-W70</f>
         <v>0.71027777777777801</v>
       </c>
     </row>
-    <row r="71" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:25" x14ac:dyDescent="0.2">
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
@@ -5019,9 +5066,9 @@
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="V71" s="6"/>
-      <c r="X71" s="6"/>
-    </row>
-    <row r="72" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="6"/>
+    </row>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
@@ -5081,9 +5128,9 @@
       <c r="W72" t="s">
         <v>15</v>
       </c>
-      <c r="X72" s="6"/>
-    </row>
-    <row r="73" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="6"/>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1">
         <v>23</v>
       </c>
@@ -5130,12 +5177,12 @@
         <f t="shared" si="3"/>
         <v>1.930232558139535</v>
       </c>
-      <c r="X73" s="6">
+      <c r="Y73" s="6">
         <f t="shared" si="5"/>
         <v>1.930232558139535</v>
       </c>
     </row>
-    <row r="74" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1">
         <v>24</v>
       </c>
@@ -5197,12 +5244,12 @@
       <c r="W74">
         <v>3.95</v>
       </c>
-      <c r="X74" s="6">
+      <c r="Y74" s="6">
         <f t="shared" si="5"/>
         <v>0.13787499777923795</v>
       </c>
     </row>
-    <row r="75" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1">
         <v>25</v>
       </c>
@@ -5266,12 +5313,12 @@
       <c r="W75">
         <v>13.29</v>
       </c>
-      <c r="X75" s="6">
+      <c r="Y75" s="6">
         <f t="shared" si="5"/>
         <v>-6.1721834082469229E-2</v>
       </c>
     </row>
-    <row r="76" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1">
         <v>26</v>
       </c>
@@ -5335,12 +5382,12 @@
       <c r="W76">
         <v>22.79</v>
       </c>
-      <c r="X76" s="6">
+      <c r="Y76" s="6">
         <f t="shared" si="5"/>
         <v>-0.48553691253396991</v>
       </c>
     </row>
-    <row r="77" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1">
         <v>27</v>
       </c>
@@ -5404,12 +5451,12 @@
       <c r="W77">
         <v>33.32</v>
       </c>
-      <c r="X77" s="6">
+      <c r="Y77" s="6">
         <f t="shared" si="5"/>
         <v>3.1549902147472721</v>
       </c>
     </row>
-    <row r="78" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C78" s="1">
         <v>28</v>
       </c>
@@ -5473,12 +5520,12 @@
       <c r="W78">
         <v>66.040000000000006</v>
       </c>
-      <c r="X78" s="6">
+      <c r="Y78" s="6">
         <f t="shared" si="5"/>
         <v>0.7643303318207586</v>
       </c>
     </row>
-    <row r="79" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C79" s="1">
         <v>29</v>
       </c>
@@ -5542,12 +5589,12 @@
       <c r="W79">
         <v>55.92</v>
       </c>
-      <c r="X79" s="6">
+      <c r="Y79" s="6">
         <f t="shared" si="5"/>
         <v>-1.1763081395348891</v>
       </c>
     </row>
-    <row r="80" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1">
         <v>30</v>
       </c>
@@ -5611,12 +5658,12 @@
       <c r="W80">
         <v>79.25</v>
       </c>
-      <c r="X80" s="6">
+      <c r="Y80" s="6">
         <f t="shared" si="5"/>
         <v>0.23858250276855131</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1">
         <v>31</v>
       </c>
@@ -5680,12 +5727,12 @@
       <c r="W81">
         <v>60.13</v>
       </c>
-      <c r="X81" s="6">
+      <c r="Y81" s="6">
         <f t="shared" si="5"/>
         <v>20.797196843853818</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1">
         <v>32</v>
       </c>
@@ -5749,12 +5796,12 @@
       <c r="W82">
         <v>45.65</v>
       </c>
-      <c r="X82" s="6">
+      <c r="Y82" s="6">
         <f t="shared" si="5"/>
         <v>10.36018373099769</v>
       </c>
     </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1">
         <v>33</v>
       </c>
@@ -5818,12 +5865,12 @@
       <c r="W83">
         <v>38.14</v>
       </c>
-      <c r="X83" s="6">
+      <c r="Y83" s="6">
         <f t="shared" si="5"/>
         <v>2.8031020336252865</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1">
         <v>34</v>
       </c>
@@ -5887,12 +5934,12 @@
       <c r="W84">
         <v>23.12</v>
       </c>
-      <c r="X84" s="6">
+      <c r="Y84" s="6">
         <f t="shared" si="5"/>
         <v>3.7533055219973797</v>
       </c>
     </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1">
         <v>35</v>
       </c>
@@ -5956,12 +6003,12 @@
       <c r="W85">
         <v>19.57</v>
       </c>
-      <c r="X85" s="6">
+      <c r="Y85" s="6">
         <f t="shared" si="5"/>
         <v>0.89913440009553014</v>
       </c>
     </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1">
         <v>36</v>
       </c>
@@ -6007,12 +6054,12 @@
       <c r="W86">
         <v>16.02</v>
       </c>
-      <c r="X86" s="6">
+      <c r="Y86" s="6">
         <f t="shared" si="5"/>
         <v>-0.63289669356114331</v>
       </c>
     </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1">
         <v>37</v>
       </c>
@@ -6052,12 +6099,12 @@
       <c r="W87">
         <v>7.47</v>
       </c>
-      <c r="X87" s="6">
+      <c r="Y87" s="6">
         <f t="shared" si="5"/>
         <v>0.23423375074537933</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -6075,7 +6122,7 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
     </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -6093,7 +6140,7 @@
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -6111,7 +6158,7 @@
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
     </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -6129,7 +6176,7 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
     </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -6147,7 +6194,7 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -6165,7 +6212,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -6367,7 +6414,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="X1:X1048576">
+  <conditionalFormatting sqref="Y1:Y1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6381,10 +6428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:AA87"/>
+  <dimension ref="B2:AB87"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6392,17 +6439,18 @@
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B2" s="54" t="s">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -6465,18 +6513,21 @@
       <c r="W4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="1" t="s">
+      <c r="X4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="3">
-        <f>AVERAGE(X5:X87)</f>
-        <v>-2.0125203632202802E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB4" s="3">
+        <f>AVERAGE(Y5:Y87)</f>
+        <v>0.20765001677179259</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1">
         <v>23</v>
@@ -6519,16 +6570,17 @@
         <f>AVERAGE(D5:S5)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="40">
         <f>AVERAGE(L5:S5)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="3">
-        <f>V5-W5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X5" s="62"/>
+      <c r="Y5" s="3">
+        <f>V5-X5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1">
         <v>24</v>
@@ -6583,19 +6635,22 @@
         <f t="shared" ref="U6:U69" si="0">AVERAGE(D6:S6)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="40">
         <f t="shared" ref="V6:V69" si="1">AVERAGE(L6:S6)</f>
         <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6" s="3">
-        <f t="shared" ref="X6:X69" si="2">V6-W6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X6" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" ref="Y6:Y69" si="2">V6-X6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>25</v>
@@ -6652,19 +6707,22 @@
         <f t="shared" si="0"/>
         <v>0.3889349324634922</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <v>26</v>
@@ -6721,19 +6779,22 @@
         <f t="shared" si="0"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="40">
         <f t="shared" si="1"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="W8">
         <v>0.5</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="62">
+        <v>0.18108399</v>
+      </c>
+      <c r="Y8" s="3">
         <f t="shared" si="2"/>
-        <v>-0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-4.6083989999999991E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <v>27</v>
@@ -6790,19 +6851,22 @@
         <f t="shared" si="0"/>
         <v>0.15170706172953</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="40">
         <f t="shared" si="1"/>
         <v>0.19875000000000001</v>
       </c>
       <c r="W9">
         <v>0.3</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="62">
+        <v>0.2518666</v>
+      </c>
+      <c r="Y9" s="3">
         <f t="shared" si="2"/>
-        <v>-0.10124999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-5.3116599999999986E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <v>28</v>
@@ -6859,19 +6923,22 @@
         <f t="shared" si="0"/>
         <v>0.44504732059930419</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="40">
         <f t="shared" si="1"/>
         <v>0.43437716286133377</v>
       </c>
       <c r="W10">
         <v>0.5</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="62">
+        <v>0.22991131000000001</v>
+      </c>
+      <c r="Y10" s="3">
         <f t="shared" si="2"/>
-        <v>-6.5622837138666235E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0.20446585286133376</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1">
         <v>29</v>
@@ -6928,19 +6995,22 @@
         <f t="shared" si="0"/>
         <v>0.91051896454903003</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="40">
         <f t="shared" si="1"/>
         <v>0.24249999999999999</v>
       </c>
       <c r="W11">
         <v>0.3</v>
       </c>
-      <c r="X11" s="3">
-        <f t="shared" si="2"/>
-        <v>-5.7499999999999996E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X11" s="62">
+        <v>0.10935627000000001</v>
+      </c>
+      <c r="Y11" s="3">
+        <f>V11-X11</f>
+        <v>0.13314372999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1">
         <v>30</v>
@@ -6997,19 +7067,22 @@
         <f t="shared" si="0"/>
         <v>1.6097148230341611</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="40">
         <f t="shared" si="1"/>
         <v>0.85731240262717956</v>
       </c>
       <c r="W12">
         <v>0.6</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="62">
+        <v>1.0286497699999999</v>
+      </c>
+      <c r="Y12" s="3">
         <f t="shared" si="2"/>
-        <v>0.25731240262717958</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-0.17133736737282035</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="1">
         <v>31</v>
@@ -7066,19 +7139,22 @@
         <f t="shared" si="0"/>
         <v>1.9359427005937422</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="40">
         <f t="shared" si="1"/>
         <v>2.4601743645490082</v>
       </c>
       <c r="W13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="62">
+        <v>2.7054689600000001</v>
+      </c>
+      <c r="Y13" s="3">
         <f t="shared" si="2"/>
-        <v>0.16017436454900835</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-0.24529459545099197</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="1">
         <v>32</v>
@@ -7135,19 +7211,22 @@
         <f t="shared" si="0"/>
         <v>4.7847882880306774</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="40">
         <f t="shared" si="1"/>
         <v>2.7523048150473302</v>
       </c>
       <c r="W14">
         <v>2.9</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="62">
+        <v>2.4366672500000002</v>
+      </c>
+      <c r="Y14" s="3">
         <f t="shared" si="2"/>
-        <v>-0.14769518495266976</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0.31563756504732998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="1">
         <v>33</v>
@@ -7204,19 +7283,22 @@
         <f t="shared" si="0"/>
         <v>6.6333651534209253</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="40">
         <f t="shared" si="1"/>
         <v>6.0437710828083544</v>
       </c>
       <c r="W15">
         <v>5.6</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="62">
+        <v>7.1584650600000002</v>
+      </c>
+      <c r="Y15" s="3">
         <f t="shared" si="2"/>
-        <v>0.44377108280835476</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-1.1146939771916458</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="1">
         <v>34</v>
@@ -7273,19 +7355,22 @@
         <f t="shared" si="0"/>
         <v>4.1334061577386034</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="40">
         <f t="shared" si="1"/>
         <v>5.4636420294193364</v>
       </c>
       <c r="W16">
         <v>5.4</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="62">
+        <v>5.2032734899999999</v>
+      </c>
+      <c r="Y16" s="3">
         <f t="shared" si="2"/>
-        <v>6.3642029419336055E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.26036853941933646</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="1">
         <v>35</v>
@@ -7342,19 +7427,22 @@
         <f t="shared" si="0"/>
         <v>5.6519388232886651</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="40">
         <f t="shared" si="1"/>
         <v>6.7945566843666532</v>
       </c>
       <c r="W17">
         <v>7.5</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="62">
+        <v>7.0836165099999997</v>
+      </c>
+      <c r="Y17" s="3">
         <f t="shared" si="2"/>
-        <v>-0.70544331563334683</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-0.28905982563334653</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="1">
         <v>36</v>
@@ -7389,23 +7477,26 @@
       <c r="S18" s="35">
         <v>0</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="52">
         <f t="shared" si="0"/>
         <v>2.0573544680351628</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="53">
         <f t="shared" si="1"/>
         <v>2.0573544680351628</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="54">
         <v>2.4</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="63">
+        <v>1.4780733399999999</v>
+      </c>
+      <c r="Y18" s="3">
         <f t="shared" si="2"/>
-        <v>-0.34264553196483716</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.57928112803516285</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="1">
         <v>37</v>
@@ -7434,28 +7525,31 @@
       </c>
       <c r="R19" s="41"/>
       <c r="S19" s="44"/>
-      <c r="U19" s="3">
+      <c r="U19" s="52">
         <f t="shared" si="0"/>
         <v>3.0264252993957941</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="53">
         <f t="shared" si="1"/>
         <v>3.0264252993957941</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="63">
+        <v>2.87426659</v>
+      </c>
+      <c r="Y19" s="3">
         <f t="shared" si="2"/>
-        <v>-1.3735747006042063</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.15215870939579412</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -7518,11 +7612,12 @@
       <c r="W21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="1">
         <v>23</v>
@@ -7570,12 +7665,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="62"/>
+      <c r="Y22" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="1">
         <v>24</v>
@@ -7638,12 +7734,15 @@
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="1">
         <v>25</v>
@@ -7708,12 +7807,15 @@
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="1">
         <v>26</v>
@@ -7778,12 +7880,15 @@
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="1">
         <v>27</v>
@@ -7848,12 +7953,15 @@
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="1">
         <v>28</v>
@@ -7918,12 +8026,15 @@
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="1">
         <v>29</v>
@@ -7988,12 +8099,15 @@
       <c r="W28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28" s="62">
+        <v>0.63817303999999997</v>
+      </c>
+      <c r="Y28" s="3">
         <f t="shared" si="2"/>
-        <v>-0.1725000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.28932696000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="1">
         <v>30</v>
@@ -8058,12 +8172,15 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="62">
+        <v>0.66630787000000002</v>
+      </c>
+      <c r="Y29" s="3">
         <f t="shared" si="2"/>
-        <v>-0.14082753259371994</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.19286459740628004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="1">
         <v>31</v>
@@ -8128,12 +8245,15 @@
       <c r="W30">
         <v>2.2000000000000002</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X30" s="62">
+        <v>1.28318131</v>
+      </c>
+      <c r="Y30" s="3">
         <f t="shared" si="2"/>
-        <v>-0.24531471148193718</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.67150397851806298</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="1">
         <v>32</v>
@@ -8198,12 +8318,15 @@
       <c r="W31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X31" s="62">
+        <v>4.4899211599999997</v>
+      </c>
+      <c r="Y31" s="3">
         <f t="shared" si="2"/>
-        <v>0.6642367697460152</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.2743156097460151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="1">
         <v>33</v>
@@ -8266,12 +8389,15 @@
       <c r="W32">
         <v>5.3</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="62">
+        <v>4.4883981200000003</v>
+      </c>
+      <c r="Y32" s="3">
         <f t="shared" si="2"/>
-        <v>-1.1509966091308304</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-0.3393947291308308</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="1">
         <v>34</v>
@@ -8334,12 +8460,15 @@
       <c r="W33">
         <v>8.9</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="62">
+        <v>6.2370006199999999</v>
+      </c>
+      <c r="Y33" s="3">
         <f t="shared" si="2"/>
-        <v>-0.44443528502881868</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+        <v>2.2185640949711818</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="1">
         <v>35</v>
@@ -8402,12 +8531,15 @@
       <c r="W34">
         <v>8.4</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34" s="62">
+        <v>7.3057662800000003</v>
+      </c>
+      <c r="Y34" s="3">
         <f t="shared" si="2"/>
-        <v>1.6261067531001263</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+        <v>2.7203404731001264</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="1">
         <v>36</v>
@@ -8454,12 +8586,15 @@
       <c r="W35">
         <v>2.9</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="62">
+        <v>2.9033435700000001</v>
+      </c>
+      <c r="Y35" s="3">
         <f t="shared" si="2"/>
-        <v>3.3783991213212841</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+        <v>3.3750555513212839</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="1">
         <v>37</v>
@@ -8500,18 +8635,21 @@
       <c r="W36">
         <v>5.8</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X36" s="62">
+        <v>3.3698473400000002</v>
+      </c>
+      <c r="Y36" s="3">
         <f t="shared" si="2"/>
-        <v>-1.3831509612067796</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+        <v>1.04700169879322</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="O37" s="6"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -8574,11 +8712,12 @@
       <c r="W38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X38" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="1">
         <v>23</v>
@@ -8626,12 +8765,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X39" s="3">
+      <c r="Y39" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="1">
         <v>24</v>
@@ -8695,11 +8834,14 @@
         <v>0</v>
       </c>
       <c r="X40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="1">
         <v>25</v>
@@ -8765,11 +8907,14 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="1">
         <v>26</v>
@@ -8835,11 +8980,14 @@
         <v>0.2</v>
       </c>
       <c r="X42" s="3">
+        <v>2.18720887844789E-2</v>
+      </c>
+      <c r="Y42" s="3">
         <f t="shared" si="2"/>
-        <v>-0.10625000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+        <v>7.1877911215521104E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="1">
         <v>27</v>
@@ -8905,11 +9053,14 @@
         <v>0.4</v>
       </c>
       <c r="X43" s="3">
+        <v>0.30299064197369302</v>
+      </c>
+      <c r="Y43" s="3">
         <f t="shared" si="2"/>
-        <v>-7.7102520257005314E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+        <v>1.9906837769301688E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="1">
         <v>28</v>
@@ -8975,11 +9126,14 @@
         <v>0.6</v>
       </c>
       <c r="X44" s="3">
+        <v>0.41570036622756801</v>
+      </c>
+      <c r="Y44" s="3">
         <f t="shared" si="2"/>
-        <v>-0.23614360309551929</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-5.1843969323087324E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="1">
         <v>29</v>
@@ -9045,11 +9199,14 @@
         <v>0.6</v>
       </c>
       <c r="X45" s="3">
+        <v>0.39528218340191001</v>
+      </c>
+      <c r="Y45" s="3">
         <f t="shared" si="2"/>
-        <v>-2.5612073961483905E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.17910574263660606</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="1">
         <v>30</v>
@@ -9115,11 +9272,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="X46" s="3">
+        <v>2.5220466341441101</v>
+      </c>
+      <c r="Y46" s="3">
         <f t="shared" si="2"/>
-        <v>0.50030856405825119</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.17826192991414125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="1">
         <v>31</v>
@@ -9185,11 +9345,14 @@
         <v>4.8</v>
       </c>
       <c r="X47" s="3">
+        <v>3.9468768226141502</v>
+      </c>
+      <c r="Y47" s="3">
         <f t="shared" si="2"/>
-        <v>0.12746659205794852</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.98058976944379816</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="1">
         <v>32</v>
@@ -9255,11 +9418,14 @@
         <v>5.3</v>
       </c>
       <c r="X48" s="3">
+        <v>4.8635763589675198</v>
+      </c>
+      <c r="Y48" s="3">
         <f t="shared" si="2"/>
-        <v>0.80150341891371557</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+        <v>1.2379270599461956</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="1">
         <v>33</v>
@@ -9325,11 +9491,14 @@
         <v>7.7</v>
       </c>
       <c r="X49" s="3">
+        <v>8.0839585906350706</v>
+      </c>
+      <c r="Y49" s="3">
         <f t="shared" si="2"/>
-        <v>1.2827171615813322</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.89875857094626177</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="1">
         <v>34</v>
@@ -9395,11 +9564,14 @@
         <v>10.5</v>
       </c>
       <c r="X50" s="3">
+        <v>9.4084497609580406</v>
+      </c>
+      <c r="Y50" s="3">
         <f t="shared" si="2"/>
-        <v>-0.15946722123847223</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.93208301780348712</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="1">
         <v>35</v>
@@ -9465,11 +9637,14 @@
         <v>13.2</v>
       </c>
       <c r="X51" s="3">
+        <v>14.514720648370099</v>
+      </c>
+      <c r="Y51" s="3">
         <f t="shared" si="2"/>
-        <v>1.0460722990090847</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-0.26864834936101545</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="1">
         <v>36</v>
@@ -9517,11 +9692,14 @@
         <v>4.3</v>
       </c>
       <c r="X52" s="3">
+        <v>3.6044459966039701</v>
+      </c>
+      <c r="Y52" s="3">
         <f t="shared" si="2"/>
-        <v>-0.88607480725239673</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-0.19052080385636705</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="1">
         <v>37</v>
@@ -9563,16 +9741,19 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X53" s="3">
+        <v>3.8105284131660002</v>
+      </c>
+      <c r="Y53" s="3">
         <f t="shared" si="2"/>
-        <v>-0.96965635992215304</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.11981522691184709</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>5</v>
@@ -9635,11 +9816,12 @@
       <c r="W55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X55" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="1">
         <v>23</v>
@@ -9683,12 +9865,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X56" s="3">
+      <c r="Y56" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="1">
         <v>24</v>
@@ -9752,11 +9934,14 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="1">
         <v>25</v>
@@ -9822,11 +10007,14 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="1">
         <v>26</v>
@@ -9892,11 +10080,14 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="1">
         <v>27</v>
@@ -9962,11 +10153,14 @@
         <v>0</v>
       </c>
       <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="1">
         <v>28</v>
@@ -10032,11 +10226,14 @@
         <v>0.8</v>
       </c>
       <c r="X61" s="3">
+        <v>8.1318681318681293E-2</v>
+      </c>
+      <c r="Y61" s="3">
         <f t="shared" si="2"/>
-        <v>-0.32125000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.3974313186813187</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="1">
         <v>29</v>
@@ -10102,11 +10299,14 @@
         <v>0.5</v>
       </c>
       <c r="X62" s="3">
+        <v>0.66413005880318199</v>
+      </c>
+      <c r="Y62" s="3">
         <f t="shared" si="2"/>
-        <v>-3.3572717769744076E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-0.19770277657292606</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="1">
         <v>30</v>
@@ -10172,11 +10372,14 @@
         <v>0.7</v>
       </c>
       <c r="X63" s="3">
+        <v>0.41799075545283798</v>
+      </c>
+      <c r="Y63" s="3">
         <f t="shared" si="2"/>
-        <v>-0.36274511023995737</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-8.0735865692795394E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="1">
         <v>31</v>
@@ -10242,11 +10445,14 @@
         <v>4.3</v>
       </c>
       <c r="X64" s="3">
+        <v>4.5488354970604403</v>
+      </c>
+      <c r="Y64" s="3">
         <f t="shared" si="2"/>
-        <v>-1.4449837295789685</v>
-      </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-1.693819226639409</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="1">
         <v>32</v>
@@ -10312,11 +10518,14 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="X65" s="3">
+        <v>9.9888848434269999</v>
+      </c>
+      <c r="Y65" s="3">
         <f t="shared" si="2"/>
-        <v>-0.19351464373552041</v>
-      </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-1.482399487162521</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="1">
         <v>33</v>
@@ -10380,11 +10589,14 @@
         <v>7.5</v>
       </c>
       <c r="X66" s="3">
+        <v>6.2640671631270202</v>
+      </c>
+      <c r="Y66" s="3">
         <f t="shared" si="2"/>
-        <v>1.0309738862741007</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+        <v>2.2669067231470805</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="1">
         <v>34</v>
@@ -10448,11 +10660,14 @@
         <v>6.3</v>
       </c>
       <c r="X67" s="3">
+        <v>4.2471596677606804</v>
+      </c>
+      <c r="Y67" s="3">
         <f t="shared" si="2"/>
-        <v>-0.97902583643613017</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+        <v>1.0738144958031892</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="1">
         <v>35</v>
@@ -10516,11 +10731,14 @@
         <v>9</v>
       </c>
       <c r="X68" s="3">
+        <v>8.5150980344752494</v>
+      </c>
+      <c r="Y68" s="3">
         <f t="shared" si="2"/>
-        <v>-0.68136346890728738</v>
-      </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-0.19646150338253676</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="1">
         <v>36</v>
@@ -10568,11 +10786,14 @@
         <v>5.2</v>
       </c>
       <c r="X69" s="3">
+        <v>7.6076550524286404</v>
+      </c>
+      <c r="Y69" s="3">
         <f t="shared" si="2"/>
-        <v>2.1720476683723815</v>
-      </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-0.2356073840562587</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="1">
         <v>37</v>
@@ -10614,16 +10835,19 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
-        <f t="shared" ref="X70:X87" si="5">V70-W70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <f t="shared" ref="Y70:Y87" si="5">V70-X70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-      <c r="X71" s="3"/>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
@@ -10685,11 +10909,12 @@
       <c r="W72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X72" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C73" s="1">
         <v>23</v>
       </c>
@@ -10735,12 +10960,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X73" s="3">
+      <c r="X73" s="62"/>
+      <c r="Y73" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C74" s="1">
         <v>24</v>
       </c>
@@ -10801,12 +11027,15 @@
       <c r="W74">
         <v>0</v>
       </c>
-      <c r="X74" s="3">
+      <c r="X74" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C75" s="1">
         <v>25</v>
       </c>
@@ -10869,12 +11098,15 @@
       <c r="W75">
         <v>0</v>
       </c>
-      <c r="X75" s="3">
+      <c r="X75" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C76" s="1">
         <v>26</v>
       </c>
@@ -10937,12 +11169,15 @@
       <c r="W76">
         <v>0.2</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="62">
+        <v>8.0509620000000004E-2</v>
+      </c>
+      <c r="Y76" s="3">
         <f t="shared" si="5"/>
-        <v>-0.10625000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+        <v>1.3240379999999996E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C77" s="1">
         <v>27</v>
       </c>
@@ -11005,12 +11240,15 @@
       <c r="W77">
         <v>0.2</v>
       </c>
-      <c r="X77" s="3">
+      <c r="X77" s="62">
+        <v>0.28098805999999998</v>
+      </c>
+      <c r="Y77" s="3">
         <f t="shared" si="5"/>
-        <v>4.0380513261404405E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-4.0607546738595568E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="1">
         <v>28</v>
       </c>
@@ -11073,12 +11311,15 @@
       <c r="W78">
         <v>0.5</v>
       </c>
-      <c r="X78" s="3">
+      <c r="X78" s="62">
+        <v>0.35102118999999998</v>
+      </c>
+      <c r="Y78" s="3">
         <f t="shared" si="5"/>
-        <v>-0.13738891784588647</v>
-      </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+        <v>1.1589892154113546E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C79" s="1">
         <v>29</v>
       </c>
@@ -11141,12 +11382,15 @@
       <c r="W79">
         <v>0.6</v>
       </c>
-      <c r="X79" s="3">
+      <c r="X79" s="62">
+        <v>0.43825914999999999</v>
+      </c>
+      <c r="Y79" s="3">
         <f t="shared" si="5"/>
-        <v>-0.11890964565620354</v>
-      </c>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+        <v>4.2831204343796447E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C80" s="1">
         <v>30</v>
       </c>
@@ -11209,12 +11453,15 @@
       <c r="W80">
         <v>1.4</v>
       </c>
-      <c r="X80" s="3">
+      <c r="X80" s="62">
+        <v>1.5104729400000001</v>
+      </c>
+      <c r="Y80" s="3">
         <f t="shared" si="5"/>
-        <v>0.14468908168526862</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+        <v>3.4216141685268431E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C81" s="1">
         <v>31</v>
       </c>
@@ -11277,12 +11524,15 @@
       <c r="W81">
         <v>3.5</v>
       </c>
-      <c r="X81" s="3">
+      <c r="X81" s="62">
+        <v>3.2392029500000001</v>
+      </c>
+      <c r="Y81" s="3">
         <f t="shared" si="5"/>
-        <v>-0.19304983940466425</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+        <v>6.7747210595335616E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C82" s="1">
         <v>32</v>
       </c>
@@ -11345,12 +11595,15 @@
       <c r="W82">
         <v>4.5</v>
       </c>
-      <c r="X82" s="3">
+      <c r="X82" s="62">
+        <v>4.1072067199999998</v>
+      </c>
+      <c r="Y82" s="3">
         <f t="shared" si="5"/>
-        <v>-4.8162196702715931E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0.34463108329728431</v>
+      </c>
+    </row>
+    <row r="83" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C83" s="1">
         <v>33</v>
       </c>
@@ -11413,12 +11666,15 @@
       <c r="W83">
         <v>6.6</v>
       </c>
-      <c r="X83" s="3">
+      <c r="X83" s="62">
+        <v>6.9744067999999997</v>
+      </c>
+      <c r="Y83" s="3">
         <f t="shared" si="5"/>
-        <v>0.21582370065590695</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-0.15858309934409309</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C84" s="1">
         <v>34</v>
       </c>
@@ -11481,12 +11737,15 @@
       <c r="W84">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X84" s="3">
+      <c r="X84" s="62">
+        <v>7.1837118000000002</v>
+      </c>
+      <c r="Y84" s="3">
         <f t="shared" si="5"/>
-        <v>-0.27256862369634582</v>
-      </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0.74371957630365326</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C85" s="1">
         <v>35</v>
       </c>
@@ -11549,12 +11808,15 @@
       <c r="W85">
         <v>9.9</v>
       </c>
-      <c r="X85" s="3">
+      <c r="X85" s="62">
+        <v>9.81950301</v>
+      </c>
+      <c r="Y85" s="3">
         <f t="shared" si="5"/>
-        <v>-0.42049997271276673</v>
-      </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-0.34000298271276641</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C86" s="1">
         <v>36</v>
       </c>
@@ -11599,12 +11861,15 @@
       <c r="W86">
         <v>3.2</v>
       </c>
-      <c r="X86" s="3">
+      <c r="X86" s="62">
+        <v>2.30052966</v>
+      </c>
+      <c r="Y86" s="3">
         <f t="shared" si="5"/>
-        <v>-0.49725796943369227</v>
-      </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0.40221237056630788</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C87" s="1">
         <v>37</v>
       </c>
@@ -11643,16 +11908,19 @@
       <c r="W87">
         <v>4.8</v>
       </c>
-      <c r="X87" s="3">
+      <c r="X87" s="62">
+        <v>3.9828198600000002</v>
+      </c>
+      <c r="Y87" s="3">
         <f t="shared" si="5"/>
-        <v>-0.49820975427318359</v>
+        <v>0.31897038572681602</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="X1:X1048576 Z4">
+  <conditionalFormatting sqref="AA4 Y1:Y1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11667,23 +11935,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:AA89"/>
+  <dimension ref="B2:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="21" max="21" width="9.1640625" style="3"/>
     <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="61"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -11693,7 +11962,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -11703,7 +11972,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -11766,17 +12035,20 @@
         <v>12</v>
       </c>
       <c r="X4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="6">
-        <f>AVERAGE(X5:X87)</f>
+      <c r="AB4" s="6">
+        <f>AVERAGE(Y5:Y87)</f>
         <v>1.0060822842521112E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="1">
         <v>23</v>
       </c>
@@ -11823,12 +12095,15 @@
         <f>AVERAGE(K5:S5)</f>
         <v>0.1</v>
       </c>
-      <c r="X5" s="6">
-        <f>V5-W5</f>
+      <c r="X5" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <f t="shared" ref="Y5:Y19" si="0">V5-W5</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>24</v>
       </c>
@@ -11880,22 +12155,25 @@
       <c r="S6" s="47"/>
       <c r="T6" s="10"/>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U69" si="0">AVERAGE(D6:S6)</f>
+        <f t="shared" ref="U6:U69" si="1">AVERAGE(D6:S6)</f>
         <v>0</v>
       </c>
       <c r="V6" s="6">
-        <f t="shared" ref="V6:V69" si="1">AVERAGE(K6:S6)</f>
+        <f t="shared" ref="V6:V69" si="2">AVERAGE(K6:S6)</f>
         <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6" s="6">
-        <f t="shared" ref="X6:X69" si="2">V6-W6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X6" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <v>25</v>
       </c>
@@ -11949,22 +12227,25 @@
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.17339375E-2</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
         <f t="shared" si="0"/>
-        <v>1.17339375E-2</v>
-      </c>
-      <c r="V7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>26</v>
       </c>
@@ -12018,22 +12299,25 @@
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1110000000000001E-3</v>
       </c>
       <c r="V8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0864E-2</v>
       </c>
       <c r="W8">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="X8" s="6">
-        <f t="shared" si="2"/>
+      <c r="X8" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="0"/>
         <v>-1.9360000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>27</v>
       </c>
@@ -12087,22 +12371,25 @@
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5404720583594997E-2</v>
       </c>
       <c r="V9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1077614370835551E-2</v>
       </c>
       <c r="W9">
         <v>1.46E-2</v>
       </c>
-      <c r="X9" s="6">
-        <f t="shared" si="2"/>
+      <c r="X9" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <f t="shared" si="0"/>
         <v>-3.5223856291644491E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>28</v>
       </c>
@@ -12156,22 +12443,25 @@
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8804238053698538E-2</v>
       </c>
       <c r="V10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6204756539908504E-2</v>
       </c>
       <c r="W10">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="X10" s="6">
-        <f t="shared" si="2"/>
+      <c r="X10" s="51">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Y10" s="6">
+        <f t="shared" si="0"/>
         <v>-3.9524346009149613E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>29</v>
       </c>
@@ -12225,22 +12515,25 @@
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10066278260665905</v>
       </c>
       <c r="V11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2372801896161149E-3</v>
       </c>
       <c r="W11">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="X11" s="6">
-        <f t="shared" si="2"/>
+      <c r="X11" s="51">
+        <v>0.25108000000000003</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" si="0"/>
         <v>-1.6862719810383883E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>30</v>
       </c>
@@ -12294,22 +12587,25 @@
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13643311434437214</v>
       </c>
       <c r="V12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2970758834439338E-2</v>
       </c>
       <c r="W12">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="X12" s="6">
-        <f t="shared" si="2"/>
+      <c r="X12" s="51">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" si="0"/>
         <v>2.8770758834439344E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>31</v>
       </c>
@@ -12363,22 +12659,25 @@
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17536656974245057</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23915256843102325</v>
       </c>
       <c r="W13">
         <v>0.219</v>
       </c>
-      <c r="X13" s="6">
-        <f t="shared" si="2"/>
+      <c r="X13" s="51">
+        <v>0.10276</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" si="0"/>
         <v>2.0152568431023254E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>32</v>
       </c>
@@ -12432,22 +12731,25 @@
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27410413081767515</v>
       </c>
       <c r="V14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26872089923142245</v>
       </c>
       <c r="W14">
         <v>0.22789999999999999</v>
       </c>
-      <c r="X14" s="6">
-        <f t="shared" si="2"/>
+      <c r="X14" s="51">
+        <v>0.20946000000000001</v>
+      </c>
+      <c r="Y14" s="6">
+        <f t="shared" si="0"/>
         <v>4.0820899231422458E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>33</v>
       </c>
@@ -12499,22 +12801,25 @@
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38185063195546642</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40132705325911072</v>
       </c>
       <c r="W15">
         <v>0.37040000000000001</v>
       </c>
-      <c r="X15" s="6">
-        <f t="shared" si="2"/>
+      <c r="X15" s="51">
+        <v>0.50304000000000004</v>
+      </c>
+      <c r="Y15" s="6">
+        <f t="shared" si="0"/>
         <v>3.0927053259110715E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>34</v>
       </c>
@@ -12566,22 +12871,25 @@
       </c>
       <c r="T16" s="9"/>
       <c r="U16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16991281508418771</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19077913625142395</v>
       </c>
       <c r="W16">
         <v>0.2</v>
       </c>
-      <c r="X16" s="6">
-        <f t="shared" si="2"/>
+      <c r="X16" s="51">
+        <v>0.35611999999999999</v>
+      </c>
+      <c r="Y16" s="6">
+        <f t="shared" si="0"/>
         <v>-9.2208637485760581E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>35</v>
       </c>
@@ -12633,22 +12941,25 @@
       </c>
       <c r="T17" s="9"/>
       <c r="U17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18293259518045987</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25546276974521093</v>
       </c>
       <c r="W17">
         <v>0.27429999999999999</v>
       </c>
-      <c r="X17" s="6">
-        <f t="shared" si="2"/>
+      <c r="X17" s="51">
+        <v>0.29643999999999998</v>
+      </c>
+      <c r="Y17" s="6">
+        <f t="shared" si="0"/>
         <v>-1.8837230254789061E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>36</v>
       </c>
@@ -12684,22 +12995,25 @@
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="3">
-        <f t="shared" si="0"/>
-        <v>7.7008690268532048E-2</v>
-      </c>
-      <c r="V18" s="6">
         <f t="shared" si="1"/>
         <v>7.7008690268532048E-2</v>
       </c>
+      <c r="V18" s="6">
+        <f t="shared" si="2"/>
+        <v>7.7008690268532048E-2</v>
+      </c>
       <c r="W18">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="X18" s="6">
-        <f t="shared" si="2"/>
+      <c r="X18" s="51">
+        <v>6.9819999999999993E-2</v>
+      </c>
+      <c r="Y18" s="6">
+        <f t="shared" si="0"/>
         <v>-4.5913097314679574E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>37</v>
       </c>
@@ -12729,22 +13043,25 @@
       <c r="S19" s="44"/>
       <c r="T19" s="9"/>
       <c r="U19" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6930926286658278E-2</v>
-      </c>
-      <c r="V19" s="6">
         <f t="shared" si="1"/>
         <v>4.6930926286658278E-2</v>
       </c>
+      <c r="V19" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6930926286658278E-2</v>
+      </c>
       <c r="W19">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="X19" s="6">
-        <f t="shared" si="2"/>
+      <c r="X19" s="51">
+        <v>0.18266667</v>
+      </c>
+      <c r="Y19" s="6">
+        <f t="shared" si="0"/>
         <v>-8.1690737133417249E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -12756,8 +13073,9 @@
       <c r="T20" s="5"/>
       <c r="V20" s="6"/>
       <c r="X20" s="6"/>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="6"/>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
@@ -12815,8 +13133,9 @@
       </c>
       <c r="V21" s="6"/>
       <c r="X21" s="6"/>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>23</v>
       </c>
@@ -12856,19 +13175,20 @@
       <c r="S22" s="38"/>
       <c r="T22" s="9"/>
       <c r="U22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2345666666666666E-2</v>
       </c>
       <c r="V22" s="6">
-        <f t="shared" si="1"/>
-        <v>5.5555500000000001E-2</v>
-      </c>
-      <c r="X22" s="6">
         <f t="shared" si="2"/>
         <v>5.5555500000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6">
+        <f t="shared" ref="Y22:Y36" si="3">V22-W22</f>
+        <v>5.5555500000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>24</v>
       </c>
@@ -12920,22 +13240,23 @@
       <c r="S23" s="47"/>
       <c r="T23" s="10"/>
       <c r="U23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>25</v>
       </c>
@@ -12989,22 +13310,23 @@
       </c>
       <c r="T24" s="10"/>
       <c r="U24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>26</v>
       </c>
@@ -13058,22 +13380,23 @@
       </c>
       <c r="T25" s="10"/>
       <c r="U25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>27</v>
       </c>
@@ -13127,22 +13450,23 @@
       </c>
       <c r="T26" s="9"/>
       <c r="U26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>28</v>
       </c>
@@ -13196,22 +13520,23 @@
       </c>
       <c r="T27" s="9"/>
       <c r="U27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>29</v>
       </c>
@@ -13265,22 +13590,23 @@
       </c>
       <c r="T28" s="9"/>
       <c r="U28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.881842660916176E-2</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3955758416287566E-2</v>
       </c>
       <c r="W28">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="X28" s="6">
-        <f t="shared" si="2"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6">
+        <f t="shared" si="3"/>
         <v>1.2555758416287567E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>30</v>
       </c>
@@ -13334,22 +13660,23 @@
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0015763095919035E-2</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6847134392744948E-2</v>
       </c>
       <c r="W29">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="X29" s="6">
-        <f t="shared" si="2"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6">
+        <f t="shared" si="3"/>
         <v>1.7471343927449451E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>31</v>
       </c>
@@ -13403,22 +13730,23 @@
       </c>
       <c r="T30" s="9"/>
       <c r="U30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14921113284786036</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6994902840640622E-2</v>
       </c>
       <c r="W30">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="X30" s="6">
-        <f t="shared" si="2"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6">
+        <f t="shared" si="3"/>
         <v>-2.1805097159359382E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>32</v>
       </c>
@@ -13472,22 +13800,23 @@
       </c>
       <c r="T31" s="9"/>
       <c r="U31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16451330254273394</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21221709340930472</v>
       </c>
       <c r="W31">
         <v>0.1565</v>
       </c>
-      <c r="X31" s="6">
-        <f t="shared" si="2"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6">
+        <f t="shared" si="3"/>
         <v>5.5717093409304724E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>33</v>
       </c>
@@ -13539,22 +13868,23 @@
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14524456762988933</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6547946049815546E-2</v>
       </c>
       <c r="W32">
         <v>0.1467</v>
       </c>
-      <c r="X32" s="6">
-        <f t="shared" si="2"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6">
+        <f t="shared" si="3"/>
         <v>-7.0152053950184451E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
         <v>34</v>
       </c>
@@ -13606,22 +13936,23 @@
       </c>
       <c r="T33" s="13"/>
       <c r="U33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12241031554963437</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7328637027168379E-2</v>
       </c>
       <c r="W33">
         <v>0.16220000000000001</v>
       </c>
-      <c r="X33" s="6">
-        <f t="shared" si="2"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6">
+        <f t="shared" si="3"/>
         <v>-7.4871362972831632E-2</v>
       </c>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
         <v>35</v>
       </c>
@@ -13673,22 +14004,23 @@
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3940379206453996E-2</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0545743121867779E-2</v>
       </c>
       <c r="W34">
         <v>0.10290000000000001</v>
       </c>
-      <c r="X34" s="6">
-        <f t="shared" si="2"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6">
+        <f t="shared" si="3"/>
         <v>-4.2354256878132227E-2</v>
       </c>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
         <v>36</v>
       </c>
@@ -13724,22 +14056,23 @@
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3229928316190602E-2</v>
-      </c>
-      <c r="V35" s="6">
         <f t="shared" si="1"/>
         <v>2.3229928316190602E-2</v>
       </c>
+      <c r="V35" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3229928316190602E-2</v>
+      </c>
       <c r="W35">
         <v>3.85E-2</v>
       </c>
-      <c r="X35" s="6">
-        <f t="shared" si="2"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6">
+        <f t="shared" si="3"/>
         <v>-1.5270071683809398E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
         <v>37</v>
       </c>
@@ -13769,22 +14102,23 @@
       <c r="S36" s="44"/>
       <c r="T36" s="9"/>
       <c r="U36" s="3">
-        <f t="shared" si="0"/>
-        <v>3.6696424225769651E-2</v>
-      </c>
-      <c r="V36" s="6">
         <f t="shared" si="1"/>
         <v>3.6696424225769651E-2</v>
       </c>
+      <c r="V36" s="6">
+        <f t="shared" si="2"/>
+        <v>3.6696424225769651E-2</v>
+      </c>
       <c r="W36">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="X36" s="6">
-        <f t="shared" si="2"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6">
+        <f t="shared" si="3"/>
         <v>-1.760357577423035E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -13796,8 +14130,9 @@
       <c r="T37" s="5"/>
       <c r="V37" s="6"/>
       <c r="X37" s="6"/>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y37" s="6"/>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
@@ -13855,8 +14190,9 @@
       </c>
       <c r="V38" s="6"/>
       <c r="X38" s="6"/>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="6"/>
+    </row>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
         <v>23</v>
       </c>
@@ -13896,19 +14232,20 @@
       <c r="S39" s="38"/>
       <c r="T39" s="9"/>
       <c r="U39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5397222222222222E-2</v>
       </c>
       <c r="V39" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9940000000000001E-2</v>
-      </c>
-      <c r="X39" s="6">
         <f t="shared" si="2"/>
         <v>2.9940000000000001E-2</v>
       </c>
-    </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6">
+        <f t="shared" ref="Y39:Y53" si="4">V39-W39</f>
+        <v>2.9940000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
         <v>24</v>
       </c>
@@ -13960,22 +14297,23 @@
       <c r="S40" s="47"/>
       <c r="T40" s="10"/>
       <c r="U40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2481333333333334E-3</v>
       </c>
       <c r="V40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
-      <c r="X40" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
         <v>25</v>
       </c>
@@ -14029,22 +14367,23 @@
       </c>
       <c r="T41" s="10"/>
       <c r="U41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
-      <c r="X41" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
         <v>26</v>
       </c>
@@ -14098,22 +14437,23 @@
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1563562499999999E-2</v>
       </c>
       <c r="V42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1532222222222223E-3</v>
       </c>
       <c r="W42">
         <v>6.6E-3</v>
       </c>
-      <c r="X42" s="6">
-        <f t="shared" si="2"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6">
+        <f t="shared" si="4"/>
         <v>2.5532222222222224E-3</v>
       </c>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
         <v>27</v>
       </c>
@@ -14167,22 +14507,23 @@
       </c>
       <c r="T43" s="9"/>
       <c r="U43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1513701260925688E-2</v>
       </c>
       <c r="V43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.046880224164567E-2</v>
       </c>
       <c r="W43">
         <v>1.66E-2</v>
       </c>
-      <c r="X43" s="6">
-        <f t="shared" si="2"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6">
+        <f t="shared" si="4"/>
         <v>3.8688022416456698E-3</v>
       </c>
     </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
         <v>28</v>
       </c>
@@ -14236,22 +14577,23 @@
       </c>
       <c r="T44" s="9"/>
       <c r="U44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3248009589658384E-2</v>
       </c>
       <c r="V44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9522128159392709E-2</v>
       </c>
       <c r="W44">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="X44" s="6">
-        <f t="shared" si="2"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6">
+        <f t="shared" si="4"/>
         <v>3.2822128159392713E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
         <v>29</v>
       </c>
@@ -14305,22 +14647,23 @@
       </c>
       <c r="T45" s="9"/>
       <c r="U45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24006060240205426</v>
       </c>
       <c r="V45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17379907093698543</v>
       </c>
       <c r="W45">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="X45" s="6">
-        <f t="shared" si="2"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6">
+        <f t="shared" si="4"/>
         <v>0.12879907093698545</v>
       </c>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
         <v>30</v>
       </c>
@@ -14374,22 +14717,23 @@
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26647608055159538</v>
       </c>
       <c r="V46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34752480986950296</v>
       </c>
       <c r="W46">
         <v>0.22819999999999999</v>
       </c>
-      <c r="X46" s="6">
-        <f t="shared" si="2"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6">
+        <f t="shared" si="4"/>
         <v>0.11932480986950297</v>
       </c>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
         <v>31</v>
       </c>
@@ -14443,22 +14787,23 @@
       </c>
       <c r="T47" s="9"/>
       <c r="U47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22987326773823807</v>
       </c>
       <c r="V47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31778147597908984</v>
       </c>
       <c r="W47">
         <v>0.33360000000000001</v>
       </c>
-      <c r="X47" s="6">
-        <f t="shared" si="2"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6">
+        <f t="shared" si="4"/>
         <v>-1.5818524020910163E-2</v>
       </c>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
         <v>32</v>
       </c>
@@ -14512,22 +14857,23 @@
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32633843649953914</v>
       </c>
       <c r="V48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41501044266584736</v>
       </c>
       <c r="W48">
         <v>0.2422</v>
       </c>
-      <c r="X48" s="6">
-        <f t="shared" si="2"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6">
+        <f t="shared" si="4"/>
         <v>0.17281044266584736</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
         <v>33</v>
       </c>
@@ -14579,22 +14925,23 @@
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25540325425272292</v>
       </c>
       <c r="V49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22456086819898269</v>
       </c>
       <c r="W49">
         <v>0.30030000000000001</v>
       </c>
-      <c r="X49" s="6">
-        <f t="shared" si="2"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6">
+        <f t="shared" si="4"/>
         <v>-7.5739131801017323E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
         <v>34</v>
       </c>
@@ -14646,22 +14993,23 @@
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27953594128263248</v>
       </c>
       <c r="V50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24033590213772074</v>
       </c>
       <c r="W50">
         <v>0.26040000000000002</v>
       </c>
-      <c r="X50" s="6">
-        <f t="shared" si="2"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6">
+        <f t="shared" si="4"/>
         <v>-2.0064097862279279E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
         <v>35</v>
       </c>
@@ -14713,22 +15061,23 @@
       </c>
       <c r="T51" s="9"/>
       <c r="U51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21478121179325557</v>
       </c>
       <c r="V51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25351413076653695</v>
       </c>
       <c r="W51">
         <v>0.26600000000000001</v>
       </c>
-      <c r="X51" s="6">
-        <f t="shared" si="2"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6">
+        <f t="shared" si="4"/>
         <v>-1.2485869233463065E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
         <v>36</v>
       </c>
@@ -14764,22 +15113,23 @@
       </c>
       <c r="T52" s="9"/>
       <c r="U52" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0239037276695602E-2</v>
-      </c>
-      <c r="V52" s="6">
         <f t="shared" si="1"/>
         <v>4.0239037276695602E-2</v>
       </c>
+      <c r="V52" s="6">
+        <f t="shared" si="2"/>
+        <v>4.0239037276695602E-2</v>
+      </c>
       <c r="W52">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="X52" s="6">
-        <f t="shared" si="2"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6">
+        <f t="shared" si="4"/>
         <v>-1.2060962723304397E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
         <v>37</v>
       </c>
@@ -14809,22 +15159,23 @@
       <c r="S53" s="44"/>
       <c r="T53" s="9"/>
       <c r="U53" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9956906254998102E-2</v>
-      </c>
-      <c r="V53" s="6">
         <f t="shared" si="1"/>
         <v>1.9956906254998102E-2</v>
       </c>
+      <c r="V53" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9956906254998102E-2</v>
+      </c>
       <c r="W53">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="X53" s="6">
-        <f t="shared" si="2"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6">
+        <f t="shared" si="4"/>
         <v>-1.2443093745001896E-2</v>
       </c>
     </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -14836,8 +15187,9 @@
       <c r="T54" s="5"/>
       <c r="V54" s="6"/>
       <c r="X54" s="6"/>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="6"/>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
@@ -14895,8 +15247,9 @@
       </c>
       <c r="V55" s="6"/>
       <c r="X55" s="6"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="6"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1">
         <v>23</v>
       </c>
@@ -14932,19 +15285,20 @@
       <c r="S56" s="38"/>
       <c r="T56" s="9"/>
       <c r="U56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5873000000000002E-2</v>
       </c>
       <c r="V56" s="6">
-        <f t="shared" si="1"/>
-        <v>5.5555500000000001E-2</v>
-      </c>
-      <c r="X56" s="6">
         <f t="shared" si="2"/>
         <v>5.5555500000000001E-2</v>
       </c>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6">
+        <f t="shared" ref="Y56:Y70" si="5">V56-W56</f>
+        <v>5.5555500000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
         <v>24</v>
       </c>
@@ -14996,22 +15350,23 @@
       <c r="S57" s="47"/>
       <c r="T57" s="10"/>
       <c r="U57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
-      <c r="X57" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>25</v>
       </c>
@@ -15065,22 +15420,23 @@
       </c>
       <c r="T58" s="10"/>
       <c r="U58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
-      <c r="X58" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1">
         <v>26</v>
       </c>
@@ -15134,22 +15490,23 @@
       </c>
       <c r="T59" s="10"/>
       <c r="U59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2678125E-3</v>
       </c>
       <c r="V59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
-      <c r="X59" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1">
         <v>27</v>
       </c>
@@ -15203,22 +15560,23 @@
       </c>
       <c r="T60" s="9"/>
       <c r="U60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
-      <c r="X60" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1">
         <v>28</v>
       </c>
@@ -15272,22 +15630,23 @@
       </c>
       <c r="T61" s="9"/>
       <c r="U61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.881E-3</v>
       </c>
       <c r="V61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2232888888888889E-2</v>
       </c>
       <c r="W61">
         <v>1.4E-2</v>
       </c>
-      <c r="X61" s="6">
-        <f t="shared" si="2"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6">
+        <f t="shared" si="5"/>
         <v>-1.7671111111111117E-3</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1">
         <v>29</v>
       </c>
@@ -15341,22 +15700,23 @@
       </c>
       <c r="T62" s="9"/>
       <c r="U62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9207396813399102E-2</v>
       </c>
       <c r="V62" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4933372112709513E-2</v>
       </c>
       <c r="W62">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="X62" s="6">
-        <f t="shared" si="2"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6">
+        <f t="shared" si="5"/>
         <v>2.5333372112709515E-2</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1">
         <v>30</v>
       </c>
@@ -15410,22 +15770,23 @@
       </c>
       <c r="T63" s="9"/>
       <c r="U63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2534988260470445E-2</v>
       </c>
       <c r="V63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12895109024083634</v>
       </c>
       <c r="W63">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="X63" s="6">
-        <f t="shared" si="2"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6">
+        <f t="shared" si="5"/>
         <v>0.10675109024083634</v>
       </c>
     </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1">
         <v>31</v>
       </c>
@@ -15479,22 +15840,23 @@
       </c>
       <c r="T64" s="9"/>
       <c r="U64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1310047367394824E-2</v>
       </c>
       <c r="V64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10635486198647967</v>
       </c>
       <c r="W64">
         <v>0.1086</v>
       </c>
-      <c r="X64" s="6">
-        <f t="shared" si="2"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6">
+        <f t="shared" si="5"/>
         <v>-2.2451380135203314E-3</v>
       </c>
     </row>
-    <row r="65" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1">
         <v>32</v>
       </c>
@@ -15548,22 +15910,23 @@
       </c>
       <c r="T65" s="9"/>
       <c r="U65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1158105765322104</v>
       </c>
       <c r="V65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13793091383504075</v>
       </c>
       <c r="W65">
         <v>0.1434</v>
       </c>
-      <c r="X65" s="6">
-        <f t="shared" si="2"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6">
+        <f t="shared" si="5"/>
         <v>-5.4690861649592526E-3</v>
       </c>
     </row>
-    <row r="66" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1">
         <v>33</v>
       </c>
@@ -15615,22 +15978,23 @@
       </c>
       <c r="T66" s="9"/>
       <c r="U66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7019373063043049E-2</v>
       </c>
       <c r="V66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14153984399396063</v>
       </c>
       <c r="W66">
         <v>0.12039999999999999</v>
       </c>
-      <c r="X66" s="6">
-        <f t="shared" si="2"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6">
+        <f t="shared" si="5"/>
         <v>2.1139843993960641E-2</v>
       </c>
     </row>
-    <row r="67" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1">
         <v>34</v>
       </c>
@@ -15682,22 +16046,23 @@
       </c>
       <c r="T67" s="9"/>
       <c r="U67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.229312525393962E-2</v>
       </c>
       <c r="V67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.219376431212158E-2</v>
       </c>
       <c r="W67">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="X67" s="6">
-        <f t="shared" si="2"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6">
+        <f t="shared" si="5"/>
         <v>-1.9206235687878423E-2</v>
       </c>
     </row>
-    <row r="68" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1">
         <v>35</v>
       </c>
@@ -15749,22 +16114,23 @@
       </c>
       <c r="T68" s="9"/>
       <c r="U68" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8723169099289049E-2</v>
       </c>
       <c r="V68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7915504054370662E-2</v>
       </c>
       <c r="W68">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="X68" s="6">
-        <f t="shared" si="2"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6">
+        <f t="shared" si="5"/>
         <v>4.6155040543706671E-3</v>
       </c>
     </row>
-    <row r="69" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1">
         <v>36</v>
       </c>
@@ -15800,22 +16166,23 @@
       </c>
       <c r="T69" s="9"/>
       <c r="U69" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7609875471946035E-2</v>
-      </c>
-      <c r="V69" s="6">
         <f t="shared" si="1"/>
         <v>1.7609875471946035E-2</v>
       </c>
+      <c r="V69" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7609875471946035E-2</v>
+      </c>
       <c r="W69">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="X69" s="6">
-        <f t="shared" si="2"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6">
+        <f t="shared" si="5"/>
         <v>-9.4901245280539642E-3</v>
       </c>
     </row>
-    <row r="70" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1">
         <v>37</v>
       </c>
@@ -15845,22 +16212,23 @@
       <c r="S70" s="44"/>
       <c r="T70" s="9"/>
       <c r="U70" s="3">
-        <f t="shared" ref="U70:U87" si="3">AVERAGE(D70:S70)</f>
+        <f t="shared" ref="U70:U87" si="6">AVERAGE(D70:S70)</f>
         <v>0</v>
       </c>
       <c r="V70" s="6">
-        <f t="shared" ref="V70:V87" si="4">AVERAGE(K70:S70)</f>
+        <f t="shared" ref="V70:V87" si="7">AVERAGE(K70:S70)</f>
         <v>0</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
-      <c r="X70" s="6">
-        <f t="shared" ref="X70:X87" si="5">V70-W70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.2">
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
@@ -15871,8 +16239,9 @@
       <c r="T71" s="5"/>
       <c r="V71" s="6"/>
       <c r="X71" s="6"/>
-    </row>
-    <row r="72" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="6"/>
+    </row>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
@@ -15930,8 +16299,9 @@
       </c>
       <c r="V72" s="6"/>
       <c r="X72" s="6"/>
-    </row>
-    <row r="73" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="6"/>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1">
         <v>23</v>
       </c>
@@ -15971,19 +16341,20 @@
       <c r="S73" s="38"/>
       <c r="T73" s="9"/>
       <c r="U73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5442208306585107E-2</v>
       </c>
       <c r="V73" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.402232954599883E-2</v>
       </c>
-      <c r="X73" s="6">
-        <f t="shared" si="5"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6">
+        <f t="shared" ref="Y73:Y87" si="8">V73-W73</f>
         <v>5.402232954599883E-2</v>
       </c>
     </row>
-    <row r="74" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1">
         <v>24</v>
       </c>
@@ -16035,22 +16406,23 @@
       <c r="S74" s="47"/>
       <c r="T74" s="9"/>
       <c r="U74" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5405815698847807E-3</v>
       </c>
       <c r="V74" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
-      <c r="X74" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1">
         <v>25</v>
       </c>
@@ -16104,22 +16476,23 @@
       </c>
       <c r="T75" s="9"/>
       <c r="U75" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3550581551273412E-3</v>
       </c>
       <c r="V75" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
-      <c r="X75" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1">
         <v>26</v>
       </c>
@@ -16173,22 +16546,23 @@
       </c>
       <c r="T76" s="14"/>
       <c r="U76" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.1675300862485518E-3</v>
       </c>
       <c r="V76" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.7156979366968274E-3</v>
       </c>
       <c r="W76">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="X76" s="6">
-        <f t="shared" si="5"/>
+      <c r="X76" s="50"/>
+      <c r="Y76" s="6">
+        <f t="shared" si="8"/>
         <v>1.1156979366968274E-3</v>
       </c>
     </row>
-    <row r="77" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1">
         <v>27</v>
       </c>
@@ -16242,22 +16616,23 @@
       </c>
       <c r="T77" s="9"/>
       <c r="U77" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0652309957063578E-2</v>
       </c>
       <c r="V77" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0434083415439681E-2</v>
       </c>
       <c r="W77">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="X77" s="6">
-        <f t="shared" si="5"/>
+      <c r="X77" s="50"/>
+      <c r="Y77" s="6">
+        <f t="shared" si="8"/>
         <v>3.7340834154396809E-3</v>
       </c>
     </row>
-    <row r="78" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C78" s="1">
         <v>28</v>
       </c>
@@ -16311,22 +16686,23 @@
       </c>
       <c r="T78" s="9"/>
       <c r="U78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.9035511454192297E-2</v>
       </c>
       <c r="V78" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.5451682875645612E-2</v>
       </c>
       <c r="W78">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="X78" s="6">
-        <f t="shared" si="5"/>
+      <c r="X78" s="50"/>
+      <c r="Y78" s="6">
+        <f t="shared" si="8"/>
         <v>1.245168287564561E-2</v>
       </c>
     </row>
-    <row r="79" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C79" s="1">
         <v>29</v>
       </c>
@@ -16380,22 +16756,23 @@
       </c>
       <c r="T79" s="9"/>
       <c r="U79" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12525313578356162</v>
       </c>
       <c r="V79" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.5546653825341203E-2</v>
       </c>
       <c r="W79">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="X79" s="6">
-        <f t="shared" si="5"/>
+      <c r="X79" s="50"/>
+      <c r="Y79" s="6">
+        <f t="shared" si="8"/>
         <v>4.1946653825341206E-2</v>
       </c>
     </row>
-    <row r="80" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1">
         <v>30</v>
       </c>
@@ -16449,22 +16826,23 @@
       </c>
       <c r="T80" s="9"/>
       <c r="U80" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15596794283438792</v>
       </c>
       <c r="V80" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.17683203019198529</v>
       </c>
       <c r="W80">
         <v>0.1109</v>
       </c>
-      <c r="X80" s="6">
-        <f t="shared" si="5"/>
+      <c r="X80" s="50"/>
+      <c r="Y80" s="6">
+        <f t="shared" si="8"/>
         <v>6.5932030191985291E-2</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1">
         <v>31</v>
       </c>
@@ -16518,22 +16896,23 @@
       </c>
       <c r="T81" s="9"/>
       <c r="U81" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18374451720109464</v>
       </c>
       <c r="V81" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.22835725376393373</v>
       </c>
       <c r="W81">
         <v>0.21049999999999999</v>
       </c>
-      <c r="X81" s="6">
-        <f t="shared" si="5"/>
+      <c r="X81" s="50"/>
+      <c r="Y81" s="6">
+        <f t="shared" si="8"/>
         <v>1.7857253763933739E-2</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1">
         <v>32</v>
       </c>
@@ -16587,22 +16966,23 @@
       </c>
       <c r="T82" s="9"/>
       <c r="U82" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.23905658093056262</v>
       </c>
       <c r="V82" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.28701427757129067</v>
       </c>
       <c r="W82">
         <v>0.2054</v>
       </c>
-      <c r="X82" s="6">
-        <f t="shared" si="5"/>
+      <c r="X82" s="50"/>
+      <c r="Y82" s="6">
+        <f t="shared" si="8"/>
         <v>8.1614277571290667E-2</v>
       </c>
     </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1">
         <v>33</v>
       </c>
@@ -16654,22 +17034,23 @@
       </c>
       <c r="T83" s="9"/>
       <c r="U83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.23077939819578688</v>
       </c>
       <c r="V83" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.2224808069766214</v>
       </c>
       <c r="W83">
         <v>0.25169999999999998</v>
       </c>
-      <c r="X83" s="6">
-        <f t="shared" si="5"/>
+      <c r="X83" s="50"/>
+      <c r="Y83" s="6">
+        <f t="shared" si="8"/>
         <v>-2.9219193023378581E-2</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1">
         <v>34</v>
       </c>
@@ -16721,22 +17102,23 @@
       </c>
       <c r="T84" s="9"/>
       <c r="U84" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.17314716471742342</v>
       </c>
       <c r="V84" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.16263185577148628</v>
       </c>
       <c r="W84">
         <v>0.18959999999999999</v>
       </c>
-      <c r="X84" s="6">
-        <f t="shared" si="5"/>
+      <c r="X84" s="50"/>
+      <c r="Y84" s="6">
+        <f t="shared" si="8"/>
         <v>-2.6968144228513707E-2</v>
       </c>
     </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1">
         <v>35</v>
       </c>
@@ -16788,22 +17170,23 @@
       </c>
       <c r="T85" s="9"/>
       <c r="U85" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15289304532280781</v>
       </c>
       <c r="V85" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.18300662944462864</v>
       </c>
       <c r="W85">
         <v>0.19370000000000001</v>
       </c>
-      <c r="X85" s="6">
-        <f t="shared" si="5"/>
+      <c r="X85" s="50"/>
+      <c r="Y85" s="6">
+        <f t="shared" si="8"/>
         <v>-1.0693370555371368E-2</v>
       </c>
     </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1">
         <v>36</v>
       </c>
@@ -16839,22 +17222,23 @@
       </c>
       <c r="T86" s="9"/>
       <c r="U86" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.4818526984517368E-2</v>
       </c>
       <c r="V86" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.4818526984517368E-2</v>
       </c>
       <c r="W86">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="X86" s="6">
-        <f t="shared" si="5"/>
+      <c r="X86" s="50"/>
+      <c r="Y86" s="6">
+        <f t="shared" si="8"/>
         <v>-6.4814730154826306E-3</v>
       </c>
     </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1">
         <v>37</v>
       </c>
@@ -16884,22 +17268,23 @@
       <c r="S87" s="44"/>
       <c r="T87" s="9"/>
       <c r="U87" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7769952071552258E-2</v>
       </c>
       <c r="V87" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7769952071552258E-2</v>
       </c>
       <c r="W87">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="X87" s="6">
-        <f t="shared" si="5"/>
+      <c r="X87" s="50"/>
+      <c r="Y87" s="6">
+        <f t="shared" si="8"/>
         <v>-8.1300479284477437E-3</v>
       </c>
     </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
@@ -16909,7 +17294,7 @@
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
     </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
@@ -16923,7 +17308,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="X1:X1048576">
+  <conditionalFormatting sqref="Y1:Y1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
